--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4853801169590644</v>
+        <v>0.7456140350877193</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9678362573099415</v>
+        <v>0.8508771929824561</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7339181286549707</v>
+        <v>0.9473684210526316</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7923976608187134</v>
+        <v>0.6988304093567251</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7561728395061729</v>
+        <v>0.3179012345679013</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.6504761904761905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.7502923976608187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3027272727272727</v>
+        <v>0.6799183206730376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7471410006497725</v>
+        <v>0.7121182586094867</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6792452830188679</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.01384083044982699</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.53125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8508771929824561</v>
+        <v>0.8096885813148789</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.2214532871972318</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6988304093567251</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.380952380952381</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3179012345679013</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6504761904761905</v>
+        <v>0.2172149122807017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7502923976608187</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6799183206730376</v>
+        <v>0.2626237486864664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7121182586094867</v>
+        <v>0.326643598615917</v>
       </c>
     </row>
   </sheetData>
